--- a/service commands.xlsx
+++ b/service commands.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chang\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\论文\Agith\Command-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01AA17D-462C-4757-886C-90CE7AEFBA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40DACDC-E863-4EBB-9625-2584AEE5672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <author>tc={df8f4ad6-150a-4086-9be1-a48437469938}</author>
   </authors>
   <commentList>
-    <comment ref="F17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -41,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F57" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="E58" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="221">
   <si>
     <t>nginx</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>nslookup</t>
-  </si>
-  <si>
-    <t>query Internet name servers interactively</t>
   </si>
   <si>
     <t>DNS runs on UDP port 53</t>
@@ -88,16 +85,10 @@
     <t>iperf3</t>
   </si>
   <si>
-    <t>perform network throughput tests</t>
-  </si>
-  <si>
     <t>iperf uses TCP port 5201 by default</t>
   </si>
   <si>
     <t>dig</t>
-  </si>
-  <si>
-    <t>DNS lookup utility</t>
   </si>
   <si>
     <t>socket() - create an UDP socket
@@ -110,28 +101,16 @@
     <t>mtr</t>
   </si>
   <si>
-    <t>a network diagnostic tool, combining traceroute and ping</t>
-  </si>
-  <si>
     <t>The basic principle of implementing a program with traceroute functionality is to send IP packets with incrementing TTL values. By default, the traceroute command sends UDP pakcets, while the mtr command sends ICMP packets.</t>
   </si>
   <si>
     <t>traceroute</t>
   </si>
   <si>
-    <t>print the route packets trace to network host</t>
-  </si>
-  <si>
     <t>ipsec</t>
   </si>
   <si>
-    <t>invoke IPsec utilities</t>
-  </si>
-  <si>
     <t>systemctl</t>
-  </si>
-  <si>
-    <t>control the systemd system and service manager</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -143,9 +122,6 @@
     <t>reboot</t>
   </si>
   <si>
-    <t>power-off or reboot the machine</t>
-  </si>
-  <si>
     <t>sudo reboot</t>
   </si>
   <si>
@@ -160,16 +136,10 @@
     <t>poweroff</t>
   </si>
   <si>
-    <t>power-off the machine</t>
-  </si>
-  <si>
     <t>sudo poweroff</t>
   </si>
   <si>
     <t>journalctl</t>
-  </si>
-  <si>
-    <t>show the systemd logs</t>
   </si>
   <si>
     <t>openat() - open files under /var/log/journal that store the systemd logs
@@ -178,9 +148,6 @@
   </si>
   <si>
     <t>service</t>
-  </si>
-  <si>
-    <t>run a System V init script</t>
   </si>
   <si>
     <t>For systems that use System V init as their init process, the service command will run scripts under the /etc/init.d directory. For systems that use systemd as their init process, which is the most common in current Linux distributions, the service command (a shell script) will invoke systemctl [1, 2].
@@ -195,17 +162,11 @@
     <t>rabbitmqctl</t>
   </si>
   <si>
-    <t>tool for managing RabbitMQ nodes</t>
-  </si>
-  <si>
     <t>socket() - create a TCP socket
 connect() - connect to the 25672 port of the node that runs RabbitMQ serivce
 writev() &amp; recvfrom() - communicate with RabbitMQ service</t>
   </si>
   <si>
-    <t>interact with the running NGINX daemon</t>
-  </si>
-  <si>
     <t>nginx -s</t>
   </si>
   <si>
@@ -221,70 +182,43 @@
     <t>ntpq</t>
   </si>
   <si>
-    <t>query NTP servers to monitor NTP operations and performance</t>
-  </si>
-  <si>
     <t>ntpdate</t>
   </si>
   <si>
-    <t>set the date and time via NTP</t>
-  </si>
-  <si>
     <t>NTP runs on UDP port 123.</t>
   </si>
   <si>
     <t>ssh-keyscan</t>
   </si>
   <si>
-    <t>gather SSH public keys from servers</t>
-  </si>
-  <si>
     <t>SSH runs on TCP port 22.</t>
   </si>
   <si>
     <t>ssh</t>
   </si>
   <si>
-    <t>OpenSSH remote login client</t>
-  </si>
-  <si>
     <t>ping</t>
   </si>
   <si>
-    <t>send ICMP ECHO_REQUEST to network hosts</t>
-  </si>
-  <si>
     <t>ICMP is an L3 protocol which is implemented by hosts and network devices.</t>
   </si>
   <si>
     <t>curl</t>
   </si>
   <si>
-    <t>network communication</t>
-  </si>
-  <si>
     <t>HTTP runs on TCP port 80, HTTPS runs on TCP port 443.</t>
   </si>
   <si>
     <t>scp</t>
   </si>
   <si>
-    <t>OpenSSH secure file copy</t>
-  </si>
-  <si>
     <t>arping</t>
   </si>
   <si>
-    <t>sends arp pings to a given host</t>
-  </si>
-  <si>
     <t>ARP is an L3 protocol which is implemented by hosts and network devices.</t>
   </si>
   <si>
     <t>sar</t>
-  </si>
-  <si>
-    <t>collect, report, or save system activity information.</t>
   </si>
   <si>
     <t>sar -A</t>
@@ -298,9 +232,6 @@
   </si>
   <si>
     <t>snmpwalk</t>
-  </si>
-  <si>
-    <t>retrieve a subtree of management values using SNMP GETNEXT requests</t>
   </si>
   <si>
     <t>SNMP runs on UDP port 161.</t>
@@ -314,13 +245,7 @@
     <t>wget</t>
   </si>
   <si>
-    <t>The non-interactive network downloader.</t>
-  </si>
-  <si>
     <t>virsh</t>
-  </si>
-  <si>
-    <t>a user interface of libvitrd</t>
   </si>
   <si>
     <t>socket() - create Unix domain socket
@@ -329,9 +254,6 @@
   </si>
   <si>
     <t>monit</t>
-  </si>
-  <si>
-    <t>utility for monitoring services on a Unix system, with which user can monitor TCP/IP port, server protocol and ping remote servers.</t>
   </si>
   <si>
     <t>openat() - open the monitrc file 
@@ -344,9 +266,6 @@
     <t>kinit</t>
   </si>
   <si>
-    <t xml:space="preserve">Obtain and cache Kerberos ticket-granting ticket. </t>
-  </si>
-  <si>
     <t>openat() - open the config file to obtain the url of krb5
 read() - read from the config file
 socket() - create a TCP socket
@@ -373,9 +292,6 @@
     <t>mongo</t>
   </si>
   <si>
-    <t>MongoDB is a document-based NoSQL database. The document is stored in BSON format (Binary JSON), which allows for the embedding of documents and arrays within other documents and arrays.</t>
-  </si>
-  <si>
     <t>socket() - create a UNIX socket or TCP socket
 connect() - connect to target server via UNIX socket or TCP socket
 sendto() recvfrom() - communicate with server-end DBMS</t>
@@ -384,9 +300,6 @@
     <t>sqlite</t>
   </si>
   <si>
-    <t xml:space="preserve">A command-line interface for SQLite. Unlike client/server database management systems, the SQLite engine has no standalone processes with which the application program communicates. </t>
-  </si>
-  <si>
     <t>As all data is stored in the local file, there is no connection created while using sqlite.</t>
   </si>
   <si>
@@ -396,9 +309,6 @@
   </si>
   <si>
     <t>hdfs</t>
-  </si>
-  <si>
-    <t>A shell command that's part of Apache Hadoop and is used to interact with the Hadoop Distributed File System (HDFS)</t>
   </si>
   <si>
     <t xml:space="preserve">hdfs command
@@ -414,9 +324,6 @@
     <t>hbase</t>
   </si>
   <si>
-    <t>A command used to interact with an HBase database from the command line. HBase is an open-sourced database written in java.</t>
-  </si>
-  <si>
     <t>hbase shell</t>
   </si>
   <si>
@@ -429,9 +336,6 @@
     <t>redis-cli</t>
   </si>
   <si>
-    <t>Command-line client to redis-server</t>
-  </si>
-  <si>
     <t>socket() - create a AF_INET socket on IPPROTO_TCP protocol
 connect() - connect to the redis-server
 read() - read from sockets
@@ -441,9 +345,6 @@
     <t>nodetool</t>
   </si>
   <si>
-    <t>A command line interface for Apache Cassandra.Apache Cassandra is an open source, distributed, NoSQL database</t>
-  </si>
-  <si>
     <t>socket() - create a TCP socket
 connect - connect to cassandra JMX client port(running on port 7199 by default)
 sendto() recvfrom() - communicate with the cassandra</t>
@@ -452,18 +353,12 @@
     <t>docker</t>
   </si>
   <si>
-    <t>Docker image and container command line interface</t>
-  </si>
-  <si>
     <t>socket() - create an Unix domain socket
 connect() - connect the socket to /var/run/docker.sock, the interface of dockerd
 read(), write() - communicate with dockerd</t>
   </si>
   <si>
     <t>kubectl</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
   </si>
   <si>
     <t>openat() - open the configuration file, usually located at `$HOME/.kube/config`
@@ -476,9 +371,6 @@
     <t>crictl</t>
   </si>
   <si>
-    <t>CRI container runtime controller</t>
-  </si>
-  <si>
     <t>openat() - open the configuration file, usually located at `/etc/crictl.yaml`
 read() - read contents from opened file
 socket() - create an Unix domain socket
@@ -489,9 +381,6 @@
     <t>etcdctl</t>
   </si>
   <si>
-    <t>a command line tool for interacting with etcd server</t>
-  </si>
-  <si>
     <t>The etcdctl is a command line tool for interacting with the etcd server. Every API request sent to an etcd server is a gRPC remote procedure call. By default, the official etcd ports are 2379 for client requests and 2380 for peer communication. 
 References: 
 [1] https://etcd.io/docs/v3.5/dev-guide/interacting_v3/
@@ -507,9 +396,6 @@
     <t>supervisorctl</t>
   </si>
   <si>
-    <t>supervisor client</t>
-  </si>
-  <si>
     <t>pulsar-admin</t>
   </si>
   <si>
@@ -517,9 +403,6 @@
   </si>
   <si>
     <t>vtysh</t>
-  </si>
-  <si>
-    <t>an integrated shell for FRRouting</t>
   </si>
   <si>
     <t>sudo vtysh</t>
@@ -533,13 +416,7 @@
     <t>crontab</t>
   </si>
   <si>
-    <t>maintain crontab files for individual users</t>
-  </si>
-  <si>
     <t>consul</t>
-  </si>
-  <si>
-    <t>interact with the running Consul Agent</t>
   </si>
   <si>
     <t>consul &lt;command&gt; [&lt;args&gt;]
@@ -554,9 +431,6 @@
     <t>ovs-dpctl</t>
   </si>
   <si>
-    <t>administer Open vSwitch datapaths</t>
-  </si>
-  <si>
     <t>ovs-dpctl show</t>
   </si>
   <si>
@@ -566,9 +440,6 @@
   </si>
   <si>
     <t>ovs-appctl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> utility for configuring running Open vSwitch daemons</t>
   </si>
   <si>
     <t>ovs-appctl show</t>
@@ -584,9 +455,6 @@
     <t>ovs-vsctl</t>
   </si>
   <si>
-    <t>utility for querying and configuring ovs-vswitchd</t>
-  </si>
-  <si>
     <t>ovs-vsctl show</t>
   </si>
   <si>
@@ -609,9 +477,6 @@
     <t>glance</t>
   </si>
   <si>
-    <t>OpenStack glance service client</t>
-  </si>
-  <si>
     <t>socket() - create a TCP socket
 connect() - connect to the REST API server of OpenStack
 sendto() &amp; recvfrom() - communicate with the REST API server</t>
@@ -620,37 +485,19 @@
     <t>cinder</t>
   </si>
   <si>
-    <t>OpenStack cinder service client</t>
-  </si>
-  <si>
     <t>nova</t>
   </si>
   <si>
-    <t>OpenStack nova service client</t>
-  </si>
-  <si>
     <t>ironic</t>
   </si>
   <si>
-    <t>OpenStack ironic service client</t>
-  </si>
-  <si>
     <t>neutron</t>
   </si>
   <si>
-    <t>OpenStack neutron service client</t>
-  </si>
-  <si>
     <t>openstack</t>
   </si>
   <si>
-    <t>OpenStack client</t>
-  </si>
-  <si>
     <t>jps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list the instrumented Java HotSpot VMs on the target system. </t>
   </si>
   <si>
     <t>openat() - open /tmp/hsperfdata_&lt;user_name&gt; that stores HotSpot Jvmstat Performance Counters files
@@ -662,9 +509,6 @@
     <t>jstack</t>
   </si>
   <si>
-    <t>print Java thread stack traces for a Java process</t>
-  </si>
-  <si>
     <t>openat() &amp; kill() - create /proc/&lt;pid&gt;/cwd/.attach_pid&lt;pid&gt; then sends a SIGQUIT to the target JVM to enable the listener thread
 socket() - create an Unix domain socket
 connect() - connect to the HotSpot Dynamic Attach socket
@@ -674,14 +518,8 @@
     <t>jstat</t>
   </si>
   <si>
-    <t>the jstat command displays performance statistics for an instrumented Java HotSpot VM.</t>
-  </si>
-  <si>
     <t>openat() - open the HotSpot HotSpot Jvmstat Performance Counters file /tmp/hsperfdata_&lt;user_name&gt;/&lt;pid&gt;
 mmap() - retrive JVM performance data from the opened file</t>
-  </si>
-  <si>
-    <t>the tool to set IP address, route, vlan, neigh, etc, of the dpip load balancer</t>
   </si>
   <si>
     <t>dpip link show</t>
@@ -1166,55 +1004,6 @@
         <family val="2"/>
       </rPr>
       <t>https://docs.openvswitch.org/en/latest/ref/ovs-appctl.8/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>mysql</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> command is a [MySQL]</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(https://en.wikipedia.org/wiki/MySQL)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> command-line client, with which can connect to a running mysql-server. </t>
     </r>
   </si>
   <si>
@@ -1955,21 +1744,6 @@
   </si>
   <si>
     <r>
-      <t>Apache pulsar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>相关</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="14"/>
         <color rgb="FF000000"/>
@@ -2503,27 +2277,6 @@
 setsockopt() - use the IP_RECVTTL option for receiving TTL value by recvmsg(), use the IP_TTL option to set the initial TTL value of the sockets, and use IP_RECVERR option for receiving ICMP error message.
 sendto() - send UDP packets to the destination
 recvmsg() - receive the response packets and ancillary data (including ICMP error messages)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PostgreSQL uses sockets to establish a connection with the database backend complying the [Frontend/Backend Protocol]</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="14"/>
-        <color rgb="FF175CEB"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>(https://www.postgresql.org/docs/current/protocol.html)</t>
     </r>
   </si>
   <si>
@@ -3994,14 +3747,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">OpenFlow switch management utility. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>telnet</t>
-  </si>
-  <si>
-    <t>user interface to the TELNET protocol</t>
   </si>
   <si>
     <t>socket() - create a AF_INET sockets
@@ -4049,6 +3795,25 @@
   </si>
   <si>
     <t>Telnet protocol runs on TCP port 23.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Command </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key System Calls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command Pattern of Core Functionality</t>
+  </si>
+  <si>
+    <t>Functionality and Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4104,29 +3869,26 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4164,51 +3926,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4707,1280 +4460,1109 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" style="7"/>
-    <col min="2" max="2" width="9.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="55.78515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="79.92578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="77.78515625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" style="4"/>
+    <col min="2" max="2" width="22.0703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="79.92578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="55.78515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="77.78515625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="234" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="234" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="2">
+        <v>106719</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="198" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2">
+        <v>56359</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="198" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>22200</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="234" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>12279</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="3">
+        <v>11775</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="198" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2">
+        <v>11083</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="270" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10929</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="144" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10424</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="126" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9118</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="324" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9082</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="3">
-        <v>106719</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B12" s="3">
+        <v>7788</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="216" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5185</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="90" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2">
+        <v>4386</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="162" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3552</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="90" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2646</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="342" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2522</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="162" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1680</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="216" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1552</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1493</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1438</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1435</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="288" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1401</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="90" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="2">
+        <v>963</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="198" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="2">
+        <v>841</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="216" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2">
+        <v>792</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="3">
+        <v>787</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="162" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>761</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="2">
+        <v>730</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="198" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="3">
-        <v>56359</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="198" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="3">
-        <v>22200</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="234" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="3">
-        <v>12279</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="5">
-        <v>11775</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="198" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3">
-        <v>11083</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="270" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10929</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>10424</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="126" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="3">
-        <v>9118</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="324" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="3">
-        <v>9082</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="90" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="5">
-        <v>7788</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="216" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3">
-        <v>5185</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="3">
-        <v>4386</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="162" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B30" s="3">
+        <v>658</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" ht="252" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2">
+        <v>657</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="3">
-        <v>3552</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B15" s="3">
-        <v>2646</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="342" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2522</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="162" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1680</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="216" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1552</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="90" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1493</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B20" s="5">
-        <v>1438</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1435</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="288" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1401</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B23" s="3">
-        <v>963</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="198" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B24" s="3">
-        <v>841</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="216" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="3">
-        <v>792</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="5">
-        <v>787</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="162" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="3">
-        <v>761</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="108" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="3">
-        <v>730</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="90" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29" s="5">
-        <v>658</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" ht="252" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="3">
-        <v>657</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" ht="108" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="3">
-        <v>645</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>39</v>
+      <c r="D31" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" ht="90" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="3">
-        <v>610</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>43</v>
+    </row>
+    <row r="32" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="2">
+        <v>645</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" ht="54" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3">
-        <v>581</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
-        <v>176</v>
+    </row>
+    <row r="33" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2">
+        <v>610</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" ht="270" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34" s="3">
-        <v>520</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>226</v>
+    </row>
+    <row r="34" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2">
+        <v>581</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" ht="162" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="3">
-        <v>505</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>88</v>
+    </row>
+    <row r="35" spans="1:8" ht="270" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="2">
+        <v>520</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" ht="288" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+    </row>
+    <row r="36" spans="1:8" ht="162" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="2">
+        <v>505</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" ht="288" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2">
+        <v>502</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="2">
+        <v>489</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="90" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="2">
+        <v>461</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="144" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" s="2">
+        <v>459</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="234" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>418</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="180" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="2">
+        <v>373</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="162" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2">
+        <v>358</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="54" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="2">
+        <v>339</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="108" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="2">
+        <v>326</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="108" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="2">
+        <v>280</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="198" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="2">
+        <v>257</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="306" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="2">
+        <v>239</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="144" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="2">
+        <v>223</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="2">
+        <v>222</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="2">
+        <v>213</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2">
+        <v>179</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="234" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="2">
+        <v>160</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="252" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="2">
+        <v>128</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" s="2">
+        <v>117</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="54" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2">
+        <v>101</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="72" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="2">
+        <v>100</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="306" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>59</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="216" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="2">
+        <v>51</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="252" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="3">
-        <v>502</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="3">
-        <v>489</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="90" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B38" s="3">
-        <v>461</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="144" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="3">
-        <v>459</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="234" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="3">
-        <v>418</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="180" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="3">
-        <v>373</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="162" x14ac:dyDescent="0.35">
-      <c r="A42" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="3">
-        <v>358</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="90" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="3">
-        <v>339</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B44" s="3">
-        <v>326</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="108" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B45" s="3">
-        <v>280</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="198" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="3">
-        <v>257</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="306" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" s="3">
-        <v>239</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="144" x14ac:dyDescent="0.35">
-      <c r="A48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B48" s="3">
-        <v>223</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="90" x14ac:dyDescent="0.35">
-      <c r="A49" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B49" s="3">
-        <v>222</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="72" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B50" s="3">
-        <v>213</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" s="3">
-        <v>179</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="234" x14ac:dyDescent="0.35">
-      <c r="A52" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="3">
-        <v>160</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="252" x14ac:dyDescent="0.35">
-      <c r="A53" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" s="3">
-        <v>128</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="3">
-        <v>117</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F54" s="9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="A55" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55" s="3">
-        <v>101</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="72" x14ac:dyDescent="0.35">
-      <c r="A56" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B56" s="3">
-        <v>100</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="306" x14ac:dyDescent="0.35">
-      <c r="A57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B57" s="3">
-        <v>59</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="216" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="3">
-        <v>51</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="9" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="252" x14ac:dyDescent="0.35">
-      <c r="A59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B59" s="3">
+      <c r="B60" s="2">
         <v>44</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>266</v>
+      <c r="C60" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F257">
-    <sortCondition descending="1" ref="B1:B257"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E258">
+    <sortCondition descending="1" ref="B2:B258"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F36" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="F34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="E59" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="E39" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E31" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="F18" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="F30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="F58" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="F6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="F3" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="F2" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="F4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="E13" r:id="rId15" location="monolithic-driver-daemon" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="E46" r:id="rId16" location=":~:text=Linux%20Performance%20%5D-,What%20Monit%20Can%20Do,-Monit%20has%20the" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="E53" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="E10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C35" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="E35" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="E16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="E37" r:id="rId23" location="The_Communication_Protocols" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E51" r:id="rId24" location="_hbase_and_hdfs:~:text=hbase.masters%20is%20a%20comma%20separated%20list%20of%20host%3Aport%20values.%20If%20no%20port%20value%20is%20specified%2C%20the%20default%20of%2016000%20is%20assumed" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="E41" r:id="rId25" location="host-port-password-and-database:~:text=By%20default%2C%20redis%2Dcli%20connects%20to%20the%20server%20at%20the%20address%20127.0.0.1%20with%20port%206379." xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="E25" r:id="rId26" location=":~:text=Nodetool%20relies%20on%20JMX%2C%20which,each%20end%20of%20the%20exchange." xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="E7" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="E1" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="E52" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="E47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="F47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="E24" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="F24" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="E48" r:id="rId34" location="protocol" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E28" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="E44" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="E9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="E23" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="E21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="E20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="E19" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="E5" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="E26" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="E11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="E29" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="E45" r:id="rId46" location="bjvmstat" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="E38" r:id="rId47" location="battach" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="E49" r:id="rId48" location="bjvmstat" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="E37" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="E35" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C60" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C40" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="E19" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E31" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E59" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="E3" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E5" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C14" r:id="rId15" location="monolithic-driver-daemon" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C47" r:id="rId16" location=":~:text=Linux%20Performance%20%5D-,What%20Monit%20Can%20Do,-Monit%20has%20the" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C54" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C11" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C17" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C38" r:id="rId21" location="The_Communication_Protocols" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C52" r:id="rId22" location="_hbase_and_hdfs:~:text=hbase.masters%20is%20a%20comma%20separated%20list%20of%20host%3Aport%20values.%20If%20no%20port%20value%20is%20specified%2C%20the%20default%20of%2016000%20is%20assumed" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C42" r:id="rId23" location="host-port-password-and-database:~:text=By%20default%2C%20redis%2Dcli%20connects%20to%20the%20server%20at%20the%20address%20127.0.0.1%20with%20port%206379." xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C26" r:id="rId24" location=":~:text=Nodetool%20relies%20on%20JMX%2C%20which,each%20end%20of%20the%20exchange." xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C8" r:id="rId25" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C2" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C53" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C48" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="E48" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C25" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E25" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C49" r:id="rId32" location="protocol" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C29" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C45" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C10" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C24" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C21" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C20" r:id="rId39" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C6" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C27" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C12" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C30" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C46" r:id="rId44" location="bjvmstat" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C39" r:id="rId45" location="battach" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C50" r:id="rId46" location="bjvmstat" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId49"/>
+  <legacyDrawing r:id="rId47"/>
 </worksheet>
 </file>